--- a/RazdelOne/MS SQL/Import.xlsx
+++ b/RazdelOne/MS SQL/Import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="776" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="776" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
